--- a/datos/boletin.xlsx
+++ b/datos/boletin.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cideo365-my.sharepoint.com/personal/pedro_guerrero_alumnos_cide_edu/Documents/Documentos/COVID/datos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="31" documentId="8_{4A8B27C1-4710-4812-A641-62190F795569}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{86BF5C33-CC58-4883-AFC6-0054EF867FD7}"/>
+  <xr:revisionPtr revIDLastSave="47" documentId="8_{4A8B27C1-4710-4812-A641-62190F795569}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E0EAF5D9-2306-4F30-BBF8-1286389D7DBA}"/>
   <bookViews>
-    <workbookView xWindow="4290" yWindow="3877" windowWidth="16875" windowHeight="10523" xr2:uid="{C22FAC0E-544E-483E-AC82-19A155FAE30C}"/>
+    <workbookView xWindow="4628" yWindow="3877" windowWidth="16875" windowHeight="10523" xr2:uid="{C22FAC0E-544E-483E-AC82-19A155FAE30C}"/>
   </bookViews>
   <sheets>
     <sheet name="neumonia" sheetId="1" r:id="rId1"/>
@@ -401,8 +401,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{652C3597-85EA-415F-9BC3-47F99E014FCD}">
   <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -733,6 +733,24 @@
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" s="2">
         <v>14</v>
+      </c>
+      <c r="B15">
+        <v>2859</v>
+      </c>
+      <c r="C15">
+        <v>3386</v>
+      </c>
+      <c r="D15">
+        <v>2995</v>
+      </c>
+      <c r="E15">
+        <v>2128</v>
+      </c>
+      <c r="F15">
+        <v>2945</v>
+      </c>
+      <c r="G15">
+        <v>2181</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">
@@ -939,7 +957,7 @@
   <dimension ref="A1:G53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1271,6 +1289,24 @@
       <c r="A15" s="2">
         <v>14</v>
       </c>
+      <c r="B15">
+        <v>358028</v>
+      </c>
+      <c r="C15">
+        <v>422634</v>
+      </c>
+      <c r="D15">
+        <v>576005</v>
+      </c>
+      <c r="E15">
+        <v>396706</v>
+      </c>
+      <c r="F15">
+        <v>521737</v>
+      </c>
+      <c r="G15">
+        <v>483034</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" s="2">
